--- a/year 1 sem 2 Applied Informatics/u9/otchet9.xlsx
+++ b/year 1 sem 2 Applied Informatics/u9/otchet9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\programming\tu-sofia\year 1 sem 2 Applied Informatics\u9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353B82C0-1D7D-46F0-BC2B-A97A90B9F3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1AFE77-45DC-4745-8969-FAD33CDCAC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/year 1 sem 2 Applied Informatics/u9/otchet9.xlsx
+++ b/year 1 sem 2 Applied Informatics/u9/otchet9.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\programming\tu-sofia\year 1 sem 2 Applied Informatics\u9\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1AFE77-45DC-4745-8969-FAD33CDCAC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Пореден Номер</t>
   </si>
@@ -63,9 +57,6 @@
     <t>17:45 - 18:15</t>
   </si>
   <si>
-    <t>18:30 - 19:30</t>
-  </si>
-  <si>
     <t>Задача 1 на 130 страница от ръководството</t>
   </si>
   <si>
@@ -82,13 +73,22 @@
   </si>
   <si>
     <t>ex3_130</t>
+  </si>
+  <si>
+    <t>SQL - practic.com, w3school.com</t>
+  </si>
+  <si>
+    <t>18:30 - 19:00</t>
+  </si>
+  <si>
+    <t>19:00 - 19:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +118,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,7 +148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,6 +160,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -425,18 +436,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,10 +480,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -486,10 +497,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -503,35 +514,41 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -568,9 +585,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{BC6EFBFC-AD8E-4FF3-A2C0-2502ABDD49B2}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{1A39539E-4017-4117-BFA5-320ADC04D9F9}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{F07DA90A-0D8F-4344-9C1A-23481A0E889F}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
